--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="223">
   <si>
     <t>ассоциация</t>
   </si>
@@ -679,6 +679,18 @@
   </si>
   <si>
     <t>Первый, ассоциация, супертип второго, прямой потомок, вес</t>
+  </si>
+  <si>
+    <t>Т.к. много индексов, ключ должен быть коротким.</t>
+  </si>
+  <si>
+    <t>Плюс ID никогда не обновляется, и записи не будут перескакивать по страницам при обновлении полей, входящий в ключ</t>
+  </si>
+  <si>
+    <t>1. Основной индекс</t>
+  </si>
+  <si>
+    <t>Происходит соединение с таблицей ItemParent, поиск по "показывать" и если надо "группе" и "пользователю"</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2615,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,107 +3068,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>216</v>
       </c>
     </row>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="224">
   <si>
     <t>ассоциация</t>
   </si>
@@ -105,9 +110,6 @@
     <t>Особенности (чтобы не было пробелов в индексе):</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда нет разницы, показывать или не показывать, добавлять критерий Показывать IN (1, 0) </t>
-  </si>
-  <si>
     <t>Когда извлекаются все потомки (типа successor), добавлять критерий Прямой потомок IN (1, 0)</t>
   </si>
   <si>
@@ -387,21 +389,12 @@
     <t>Таблица Item  с.1</t>
   </si>
   <si>
-    <t>из таблицы Item должен быть Вторым (Item.ID = Parent.Второй),  видимым (Parent.Показывать = 1)</t>
-  </si>
-  <si>
     <t>и прямым потомком (Parent.Прямой потомок = 1)</t>
   </si>
   <si>
     <t>для обычной загрузки айтемов в процессе нормальной работы CMS</t>
   </si>
   <si>
-    <t>Поскольку главная таблица, без которой ничего не делается, это Parent, то этот индекс будет</t>
-  </si>
-  <si>
-    <t>использоватся в основном для соединения с таблицей Parent.</t>
-  </si>
-  <si>
     <t>в индексные таблицы использовать запрос INSERT ON DUPLICATE KEY UPDATE</t>
   </si>
   <si>
@@ -489,12 +482,6 @@
     <t>AUTOINCREMENT ID второго (потомка)</t>
   </si>
   <si>
-    <t>Размер ПК: 19 (поля) + 18 (служеб.) = 37 байта ~ 430 записей на страницу</t>
-  </si>
-  <si>
-    <t>Размер ВК: 19 (ПК) + 20 (поля) - 11 (общее ПК и полей) + 5 (служеб.) = 33 байт ~ 480 записей на страницу</t>
-  </si>
-  <si>
     <t>защита файлов</t>
   </si>
   <si>
@@ -522,9 +509,6 @@
     <t>также используется при сортировке, когда ID айтемов для сортировки уже известны</t>
   </si>
   <si>
-    <t>2. Поиск по типу</t>
-  </si>
-  <si>
     <t xml:space="preserve">для загрузки одиночных айтемов или айтемов, которых не много, без указания родителя, но с </t>
   </si>
   <si>
@@ -672,9 +656,6 @@
     <t>ID, показывать, группа, пользователь</t>
   </si>
   <si>
-    <t>3. Поиск по пользователю</t>
-  </si>
-  <si>
     <t>Второй, ассоциация, прямой потомок, первый</t>
   </si>
   <si>
@@ -684,13 +665,40 @@
     <t>Т.к. много индексов, ключ должен быть коротким.</t>
   </si>
   <si>
-    <t>Плюс ID никогда не обновляется, и записи не будут перескакивать по страницам при обновлении полей, входящий в ключ</t>
-  </si>
-  <si>
-    <t>1. Основной индекс</t>
-  </si>
-  <si>
     <t>Происходит соединение с таблицей ItemParent, поиск по "показывать" и если надо "группе" и "пользователю"</t>
+  </si>
+  <si>
+    <t>Плюс ID никогда не обновляется, и записи не будут перескакивать по страницам при обновлении полей, входящих в ключ</t>
+  </si>
+  <si>
+    <t>3. Поиск по типу</t>
+  </si>
+  <si>
+    <t>тип, показывать</t>
+  </si>
+  <si>
+    <t>корень</t>
+  </si>
+  <si>
+    <t>4. Корневые  айтемы</t>
+  </si>
+  <si>
+    <t>группа, пользователь, корень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При редактирвоании айтемов через CMS. На первой странице CMS должны показываться корневые айтемы, </t>
+  </si>
+  <si>
+    <t>с которых пользователь начинает навигацию</t>
+  </si>
+  <si>
+    <t>из таблицы Item должен быть Вторым (Item.ID = Parent.Второй),  видимым (Item.Показывать = 1)</t>
+  </si>
+  <si>
+    <t>Размер ПК: 18 (поля) + 18 (служеб.) = 36 байта ~ 440 записей на страницу</t>
+  </si>
+  <si>
+    <t>Размер ВК: 18 (ПК) + 18 (поля) - 10(общее ПК и полей) + 5 (служеб.) = 31 байт ~500 записей на страницу</t>
   </si>
 </sst>
 </file>
@@ -895,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -981,6 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1253,7 +1262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1263,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1300,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1302,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>2</v>
@@ -1311,27 +1320,27 @@
         <v>3</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1362,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1382,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1403,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -1423,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>12</v>
@@ -1443,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -1463,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -1483,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -1503,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1523,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1543,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1563,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -1583,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
@@ -1603,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -1623,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
@@ -1643,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>20</v>
@@ -1663,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>20</v>
@@ -1677,17 +1686,17 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,12 +1712,12 @@
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,47 +1727,47 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1768,12 +1777,12 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -1788,70 +1797,65 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1864,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E28"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,67 +1887,67 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>1500</v>
@@ -1953,13 +1957,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
@@ -1969,61 +1973,61 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -2033,13 +2037,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3">
         <v>599.99</v>
@@ -2049,48 +2053,48 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2105,10 +2109,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2117,10 +2121,10 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2130,7 +2134,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2140,7 +2144,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2150,7 +2154,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2160,7 +2164,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2176,10 +2180,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2188,10 +2192,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2212,7 +2216,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2224,19 +2228,19 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2253,7 +2257,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2263,7 +2267,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2273,7 +2277,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2286,31 +2290,31 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2327,7 +2331,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2337,7 +2341,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2347,7 +2351,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2357,7 +2361,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2375,24 +2379,24 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2409,7 +2413,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2419,7 +2423,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2437,7 +2441,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2447,7 +2451,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2457,7 +2461,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2467,32 +2471,32 @@
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E51" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2503,22 +2507,22 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2526,43 +2530,43 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
         <v>76</v>
-      </c>
-      <c r="B65" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,38 +2579,38 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2616,7 +2620,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2627,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,32 +2651,32 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="E3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>4</v>
@@ -2683,54 +2687,60 @@
       <c r="J3" s="27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="F4" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="28">
         <v>42516.673738425925</v>
@@ -2747,22 +2757,25 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="28">
         <v>42517</v>
@@ -2779,22 +2792,25 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="29">
         <v>42518</v>
@@ -2811,22 +2827,25 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="30">
         <v>42519</v>
@@ -2843,22 +2862,25 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="28">
         <v>42520</v>
@@ -2875,22 +2897,25 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="F10" s="29">
         <v>42521</v>
@@ -2907,22 +2932,25 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="30">
         <v>42522</v>
@@ -2939,22 +2967,25 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="28">
         <v>42523</v>
@@ -2971,22 +3002,25 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="29">
         <v>42524</v>
@@ -3003,22 +3037,25 @@
       <c r="J13" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="30">
         <v>42525</v>
@@ -3035,22 +3072,25 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="31">
         <v>42526</v>
@@ -3067,40 +3107,43 @@
       <c r="J15" s="4">
         <v>0</v>
       </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3115,27 +3158,27 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,51 +3188,53 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,17 +3244,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3235,138 +3275,138 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3374,13 +3414,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3388,13 +3428,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3402,13 +3442,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3416,13 +3456,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3430,13 +3470,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3444,13 +3484,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3458,13 +3498,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3472,13 +3512,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3486,13 +3526,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3500,13 +3540,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3514,13 +3554,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3528,13 +3568,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3542,13 +3582,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3556,13 +3596,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3570,13 +3610,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3584,13 +3624,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3598,13 +3638,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3612,13 +3652,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3626,13 +3666,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3640,13 +3680,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D40">
         <v>1</v>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
@@ -18,8 +13,8 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
   <si>
     <t>ассоциация</t>
   </si>
@@ -509,9 +504,6 @@
     <t>также используется при сортировке, когда ID айтемов для сортировки уже известны</t>
   </si>
   <si>
-    <t xml:space="preserve">для загрузки одиночных айтемов или айтемов, которых не много, без указания родителя, но с </t>
-  </si>
-  <si>
     <t>заданным типом (например, загрузка айтема каталога продукции)</t>
   </si>
   <si>
@@ -650,9 +642,6 @@
     <t>Также нахождение столбцов показывать, группа и пользователь в этой таблице позволяет уменьшить индексы в таблице ItemParent,</t>
   </si>
   <si>
-    <t>и при этом никик не сказыватеся на индексах таблцы Item, т.к. в ней уже есть индекс по ID.</t>
-  </si>
-  <si>
     <t>ID, показывать, группа, пользователь</t>
   </si>
   <si>
@@ -674,24 +663,6 @@
     <t>3. Поиск по типу</t>
   </si>
   <si>
-    <t>тип, показывать</t>
-  </si>
-  <si>
-    <t>корень</t>
-  </si>
-  <si>
-    <t>4. Корневые  айтемы</t>
-  </si>
-  <si>
-    <t>группа, пользователь, корень</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При редактирвоании айтемов через CMS. На первой странице CMS должны показываться корневые айтемы, </t>
-  </si>
-  <si>
-    <t>с которых пользователь начинает навигацию</t>
-  </si>
-  <si>
     <t>из таблицы Item должен быть Вторым (Item.ID = Parent.Второй),  видимым (Item.Показывать = 1)</t>
   </si>
   <si>
@@ -699,13 +670,25 @@
   </si>
   <si>
     <t>Размер ВК: 18 (ПК) + 18 (поля) - 10(общее ПК и полей) + 5 (служеб.) = 31 байт ~500 записей на страницу</t>
+  </si>
+  <si>
+    <t>тип, показывать, группа, пользователь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) для загрузки одиночных айтемов или айтемов, которых не много, без указания родителя, но с </t>
+  </si>
+  <si>
+    <t>2) для загрузки корневых айтемов для различных групп пользователей (включая группу common) в администраторской части CMS</t>
+  </si>
+  <si>
+    <t>и при этом никак не сказыватеся на индексах таблцы Item, т.к. в ней уже есть индекс по ID.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -989,7 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1262,21 +1244,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -1286,7 +1268,7 @@
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1285,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1305,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
@@ -1340,10 +1322,10 @@
         <v>58</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1386,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1426,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1684,163 +1666,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18.75">
       <c r="E25" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>30</v>
       </c>
@@ -1848,14 +1830,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1865,14 +1847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -1882,7 +1864,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1891,7 +1873,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1907,7 +1889,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
@@ -1923,7 +1905,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -1939,7 +1921,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -1955,7 +1937,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -1971,7 +1953,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -1987,7 +1969,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>125</v>
       </c>
@@ -2003,7 +1985,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -2019,7 +2001,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -2035,7 +2017,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
@@ -2051,7 +2033,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
@@ -2067,7 +2049,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>126</v>
       </c>
@@ -2083,7 +2065,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>126</v>
       </c>
@@ -2099,7 +2081,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2107,7 +2089,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2101,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
@@ -2131,7 +2113,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>129</v>
@@ -2141,7 +2123,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>130</v>
@@ -2151,7 +2133,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>131</v>
@@ -2161,7 +2143,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>132</v>
@@ -2171,14 +2153,14 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2172,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2202,14 +2184,14 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2203,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -2233,7 +2215,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -2245,7 +2227,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,7 +2237,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -2265,7 +2247,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -2275,7 +2257,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -2285,7 +2267,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2295,7 +2277,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -2307,7 +2289,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -2319,7 +2301,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,7 +2311,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
@@ -2339,7 +2321,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -2349,7 +2331,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>139</v>
       </c>
@@ -2359,7 +2341,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>140</v>
       </c>
@@ -2369,7 +2351,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2377,7 +2359,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>141</v>
       </c>
@@ -2389,7 +2371,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -2401,7 +2383,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -2411,7 +2393,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -2421,7 +2403,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
@@ -2431,7 +2413,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2439,7 +2421,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
         <v>28</v>
       </c>
@@ -2449,7 +2431,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2459,7 +2441,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2469,17 +2451,17 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="18.75">
       <c r="E51" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -2487,12 +2469,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="B55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
@@ -2502,10 +2484,10 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2513,12 +2495,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="B59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -2528,22 +2510,22 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="C61" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="C62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="C63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -2551,12 +2533,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="B66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="C67" t="s">
         <v>78</v>
       </c>
@@ -2564,12 +2546,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="D68" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2577,7 +2559,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2585,17 +2567,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="B71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="C72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -2603,12 +2585,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="D74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -2618,7 +2600,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -2630,14 +2612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -2651,12 +2633,12 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="F1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>88</v>
       </c>
@@ -2687,11 +2669,8 @@
       <c r="J3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -2722,11 +2701,8 @@
       <c r="J4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -2757,11 +2733,8 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2792,11 +2765,8 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -2827,11 +2797,8 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -2862,11 +2829,8 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -2897,11 +2861,8 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -2932,11 +2893,8 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -2967,11 +2925,8 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -3002,11 +2957,8 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
@@ -3037,11 +2989,8 @@
       <c r="J13" s="9">
         <v>5</v>
       </c>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
@@ -3072,11 +3021,8 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
@@ -3107,149 +3053,126 @@
       <c r="J15" s="4">
         <v>0</v>
       </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3259,434 +3182,434 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>170</v>
       </c>
-      <c r="B4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
         <v>171</v>
       </c>
-      <c r="B5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>175</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>176</v>
       </c>
-      <c r="B8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
         <v>184</v>
       </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" t="s">
-        <v>200</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
         <v>186</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>198</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>198</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
         <v>199</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" t="s">
-        <v>200</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
         <v>177</v>
       </c>
-      <c r="C34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>178</v>
-      </c>
       <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>198</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>177</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>198</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>199</v>
-      </c>
       <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>177</v>
       </c>
-      <c r="C38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>178</v>
-      </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40">
         <v>1</v>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="225">
   <si>
     <t>ассоциация</t>
   </si>
@@ -504,9 +509,6 @@
     <t>также используется при сортировке, когда ID айтемов для сортировки уже известны</t>
   </si>
   <si>
-    <t>заданным типом (например, загрузка айтема каталога продукции)</t>
-  </si>
-  <si>
     <t>4  байта</t>
   </si>
   <si>
@@ -660,9 +662,6 @@
     <t>Плюс ID никогда не обновляется, и записи не будут перескакивать по страницам при обновлении полей, входящих в ключ</t>
   </si>
   <si>
-    <t>3. Поиск по типу</t>
-  </si>
-  <si>
     <t>из таблицы Item должен быть Вторым (Item.ID = Parent.Второй),  видимым (Item.Показывать = 1)</t>
   </si>
   <si>
@@ -672,9 +671,6 @@
     <t>Размер ВК: 18 (ПК) + 18 (поля) - 10(общее ПК и полей) + 5 (служеб.) = 31 байт ~500 записей на страницу</t>
   </si>
   <si>
-    <t>тип, показывать, группа, пользователь</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) для загрузки одиночных айтемов или айтемов, которых не много, без указания родителя, но с </t>
   </si>
   <si>
@@ -682,13 +678,37 @@
   </si>
   <si>
     <t>и при этом никак не сказыватеся на индексах таблцы Item, т.к. в ней уже есть индекс по ID.</t>
+  </si>
+  <si>
+    <t>группа, пользователь, тип, показывать</t>
+  </si>
+  <si>
+    <t>заданным типом (например, загрузка айтема каталога продукции).</t>
+  </si>
+  <si>
+    <t>В критерий добавляется  группа по умолчанию (0) и анонимный пользователь (0).</t>
+  </si>
+  <si>
+    <t>В критерий добавляется группа залогиненного админа и ID его пользователя либо 0 (user_id IN (0, пользователь))</t>
+  </si>
+  <si>
+    <t>3) при поиске всех айтемов определенного пользователя при изменении прав или удалении этого пользователя</t>
+  </si>
+  <si>
+    <t>3. Поиск по группе, пользователю и типу</t>
+  </si>
+  <si>
+    <t>!!! Возможно этот индекс избыточен и его можно заменить</t>
+  </si>
+  <si>
+    <t>индексом №2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,21 +1264,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -1268,7 +1288,7 @@
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1305,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
@@ -1322,10 +1342,10 @@
         <v>58</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1406,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1666,163 +1686,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75">
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>30</v>
       </c>
@@ -1830,14 +1856,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1847,14 +1873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -1864,7 +1890,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1873,7 +1899,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1889,7 +1915,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
@@ -1905,7 +1931,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -1921,7 +1947,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -1937,7 +1963,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -1953,7 +1979,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -1969,7 +1995,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>125</v>
       </c>
@@ -1985,7 +2011,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -2001,7 +2027,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -2017,7 +2043,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
@@ -2033,7 +2059,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
@@ -2049,7 +2075,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>126</v>
       </c>
@@ -2065,7 +2091,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>126</v>
       </c>
@@ -2081,7 +2107,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2089,7 +2115,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2101,7 +2127,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
@@ -2113,7 +2139,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>129</v>
@@ -2123,7 +2149,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>130</v>
@@ -2133,7 +2159,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>131</v>
@@ -2143,7 +2169,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>132</v>
@@ -2153,14 +2179,14 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2172,7 +2198,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2184,14 +2210,14 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
@@ -2203,7 +2229,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2241,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -2227,7 +2253,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2237,7 +2263,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -2247,7 +2273,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -2257,7 +2283,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -2267,7 +2293,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2277,7 +2303,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -2289,7 +2315,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -2301,7 +2327,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -2311,7 +2337,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
@@ -2321,7 +2347,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -2331,7 +2357,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>139</v>
       </c>
@@ -2341,7 +2367,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>140</v>
       </c>
@@ -2351,7 +2377,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2359,7 +2385,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>141</v>
       </c>
@@ -2371,7 +2397,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -2383,7 +2409,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,7 +2419,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -2403,7 +2429,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
@@ -2413,7 +2439,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2421,7 +2447,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>28</v>
       </c>
@@ -2431,7 +2457,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2441,7 +2467,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2451,17 +2477,17 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="18.75">
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E51" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -2469,12 +2495,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
@@ -2484,10 +2510,10 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2495,12 +2521,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -2510,22 +2536,22 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -2533,12 +2559,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>78</v>
       </c>
@@ -2546,12 +2572,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2559,7 +2585,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2567,17 +2593,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -2585,12 +2611,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -2600,7 +2626,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -2612,14 +2638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -2633,12 +2659,12 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>88</v>
       </c>
@@ -2670,7 +2696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -2702,7 +2728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2766,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -2798,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -2830,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -2862,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -2958,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
@@ -2990,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
@@ -3022,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
@@ -3054,125 +3080,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3182,434 +3223,434 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>169</v>
       </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
         <v>170</v>
       </c>
-      <c r="B5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>174</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>172</v>
       </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>175</v>
       </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" t="s">
-        <v>184</v>
-      </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
         <v>198</v>
-      </c>
-      <c r="B23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>199</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
         <v>185</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>197</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>197</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
         <v>198</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
         <v>176</v>
       </c>
-      <c r="C34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" t="s">
-        <v>177</v>
-      </c>
       <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>197</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>176</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>197</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>198</v>
-      </c>
       <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>176</v>
       </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>177</v>
-      </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40">
         <v>1</v>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="227">
   <si>
     <t>ассоциация</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Пояснение по полям:</t>
   </si>
   <si>
-    <t>показвать, группа и поьзователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
-  </si>
-  <si>
     <t xml:space="preserve">именно айтему, а не его отношению с предками. При поиске происходит соединение талицы ItemParent с этой таблицей по </t>
   </si>
   <si>
@@ -680,9 +677,6 @@
     <t>и при этом никак не сказыватеся на индексах таблцы Item, т.к. в ней уже есть индекс по ID.</t>
   </si>
   <si>
-    <t>группа, пользователь, тип, показывать</t>
-  </si>
-  <si>
     <t>заданным типом (например, загрузка айтема каталога продукции).</t>
   </si>
   <si>
@@ -702,6 +696,18 @@
   </si>
   <si>
     <t>индексом №2</t>
+  </si>
+  <si>
+    <t>супертип</t>
+  </si>
+  <si>
+    <t>товар</t>
+  </si>
+  <si>
+    <t>показвать, группа и пользователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
+  </si>
+  <si>
+    <t>группа, пользователь, супертип, показывать</t>
   </si>
 </sst>
 </file>
@@ -1274,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1745,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -1769,7 +1775,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1807,7 +1813,7 @@
         <v>164</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,7 +1821,7 @@
         <v>165</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,12 +1836,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,64 +2645,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F1" s="12" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -2704,31 +2713,34 @@
         <v>102</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -2736,31 +2748,34 @@
         <v>98</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="28">
+      <c r="G5" s="28">
         <v>42516.673738425925</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2768,31 +2783,34 @@
         <v>99</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="28">
+      <c r="G6" s="28">
         <v>42517</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -2800,31 +2818,34 @@
         <v>99</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="29">
+      <c r="G7" s="29">
         <v>42518</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
       <c r="H7" s="9">
         <v>0</v>
       </c>
       <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -2832,31 +2853,34 @@
         <v>100</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="30">
+      <c r="G8" s="30">
         <v>42519</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -2864,31 +2888,34 @@
         <v>100</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="28">
+      <c r="G9" s="28">
         <v>42520</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -2896,31 +2923,34 @@
         <v>100</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="29">
+      <c r="G10" s="29">
         <v>42521</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
       <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>2</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -2928,31 +2958,34 @@
         <v>101</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="30">
+      <c r="G11" s="30">
         <v>42522</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -2960,31 +2993,34 @@
         <v>101</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="28">
+      <c r="G12" s="28">
         <v>42523</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>2</v>
       </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
@@ -2992,91 +3028,100 @@
         <v>101</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="29">
+      <c r="G13" s="29">
         <v>42524</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
       <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="30">
+      <c r="G14" s="30">
         <v>42525</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="31">
+      <c r="G15" s="31">
         <v>42526</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3087,32 +3132,32 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3132,12 +3177,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3145,75 +3190,75 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="11"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>220</v>
+      </c>
       <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\testo\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="234">
   <si>
     <t>ассоциация</t>
   </si>
@@ -708,6 +708,27 @@
   </si>
   <si>
     <t>группа, пользователь, супертип, показывать</t>
+  </si>
+  <si>
+    <t>3А (вариант). Поиск по группе, типу и пользователю</t>
+  </si>
+  <si>
+    <t>группа, супертип, пользователь, показывать</t>
+  </si>
+  <si>
+    <t>В критерий добавляется  группа по умолчанию (0)</t>
+  </si>
+  <si>
+    <t>Это становится возможным, т.к. типы корневых айтемов для различных групп пользователей известны заранее</t>
+  </si>
+  <si>
+    <t>В критерий добавляется группа залогиненного админа и ID его пользователя либо 0 (user_id IN (0, пользователь)),</t>
+  </si>
+  <si>
+    <t>а также тип айтема</t>
+  </si>
+  <si>
+    <t>3) НЕ РАБОАТЕТ - при поиске всех айтемов определенного пользователя при изменении прав или удалении этого пользователя</t>
   </si>
 </sst>
 </file>
@@ -2645,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,6 +3280,61 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\testo\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
   <si>
     <t>ассоциация</t>
   </si>
@@ -641,9 +641,6 @@
     <t>Также нахождение столбцов показывать, группа и пользователь в этой таблице позволяет уменьшить индексы в таблице ItemParent,</t>
   </si>
   <si>
-    <t>ID, показывать, группа, пользователь</t>
-  </si>
-  <si>
     <t>Второй, ассоциация, прямой потомок, первый</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
     <t>заданным типом (например, загрузка айтема каталога продукции).</t>
   </si>
   <si>
-    <t>В критерий добавляется  группа по умолчанию (0) и анонимный пользователь (0).</t>
-  </si>
-  <si>
     <t>В критерий добавляется группа залогиненного админа и ID его пользователя либо 0 (user_id IN (0, пользователь))</t>
   </si>
   <si>
@@ -707,7 +701,16 @@
     <t>показвать, группа и пользователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
   </si>
   <si>
-    <t>группа, пользователь, супертип, показывать</t>
+    <t>группа, супертип, пользователь,  показывать</t>
+  </si>
+  <si>
+    <t>В критерий добавляется  группа по умолчанию (0) или все группы (которых не много)</t>
+  </si>
+  <si>
+    <t>В идеале надо задавать все типы айтемов, которые могут принадлежать пользователю (чтобы не было полного сканирования таблицы)</t>
+  </si>
+  <si>
+    <t>показывать, ID, группа, пользователь</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -998,6 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1749,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -1775,7 +1779,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1813,7 +1817,7 @@
         <v>164</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,7 +1825,7 @@
         <v>165</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1836,12 +1840,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2679,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>91</v>
@@ -3060,7 +3064,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
@@ -3095,7 +3099,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
@@ -3132,7 +3136,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3157,7 +3161,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3177,12 +3181,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3192,7 +3196,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3211,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3216,14 +3220,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,33 +3237,41 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>219</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
   <si>
     <t>ассоциация</t>
   </si>
@@ -641,9 +641,6 @@
     <t>Также нахождение столбцов показывать, группа и пользователь в этой таблице позволяет уменьшить индексы в таблице ItemParent,</t>
   </si>
   <si>
-    <t>ID, показывать, группа, пользователь</t>
-  </si>
-  <si>
     <t>Второй, ассоциация, прямой потомок, первый</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
     <t>заданным типом (например, загрузка айтема каталога продукции).</t>
   </si>
   <si>
-    <t>В критерий добавляется  группа по умолчанию (0) и анонимный пользователь (0).</t>
-  </si>
-  <si>
     <t>В критерий добавляется группа залогиненного админа и ID его пользователя либо 0 (user_id IN (0, пользователь))</t>
   </si>
   <si>
@@ -707,28 +701,16 @@
     <t>показвать, группа и пользователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
   </si>
   <si>
-    <t>группа, пользователь, супертип, показывать</t>
-  </si>
-  <si>
-    <t>3А (вариант). Поиск по группе, типу и пользователю</t>
-  </si>
-  <si>
-    <t>группа, супертип, пользователь, показывать</t>
-  </si>
-  <si>
-    <t>В критерий добавляется  группа по умолчанию (0)</t>
-  </si>
-  <si>
-    <t>Это становится возможным, т.к. типы корневых айтемов для различных групп пользователей известны заранее</t>
-  </si>
-  <si>
-    <t>В критерий добавляется группа залогиненного админа и ID его пользователя либо 0 (user_id IN (0, пользователь)),</t>
-  </si>
-  <si>
-    <t>а также тип айтема</t>
-  </si>
-  <si>
-    <t>3) НЕ РАБОАТЕТ - при поиске всех айтемов определенного пользователя при изменении прав или удалении этого пользователя</t>
+    <t>группа, супертип, пользователь,  показывать</t>
+  </si>
+  <si>
+    <t>В критерий добавляется  группа по умолчанию (0) или все группы (которых не много)</t>
+  </si>
+  <si>
+    <t>В идеале надо задавать все типы айтемов, которые могут принадлежать пользователю (чтобы не было полного сканирования таблицы)</t>
+  </si>
+  <si>
+    <t>показывать, ID, группа, пользователь</t>
   </si>
 </sst>
 </file>
@@ -933,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1019,6 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1746,7 +1729,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,7 +1749,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -1796,7 +1779,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1834,7 +1817,7 @@
         <v>164</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,7 +1825,7 @@
         <v>165</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,12 +1840,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,7 +2679,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>91</v>
@@ -3081,7 +3064,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
@@ -3116,7 +3099,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
@@ -3153,7 +3136,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3178,7 +3161,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3198,12 +3181,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3213,7 +3196,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,7 +3211,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,14 +3220,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,88 +3237,41 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>233</v>
-      </c>
+      <c r="A49" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -701,13 +701,13 @@
     <t>показвать, группа и пользователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
   </si>
   <si>
-    <t>группа, супертип, пользователь,  показывать</t>
-  </si>
-  <si>
     <t>В критерий добавляется  группа по умолчанию (0) или все группы (которых не много)</t>
   </si>
   <si>
     <t>В идеале надо задавать все типы айтемов, которые могут принадлежать пользователю (чтобы не было полного сканирования таблицы)</t>
+  </si>
+  <si>
+    <t>группа, супертип, пользователь</t>
   </si>
   <si>
     <t>показывать, ID, группа, пользователь</t>
@@ -2651,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="223">
   <si>
     <t>ассоциация</t>
   </si>
@@ -521,15 +521,6 @@
     <t>Колонка Вес заполняется только для прямых потомков. Для непрямых потомков она всегда равна 0.</t>
   </si>
   <si>
-    <t>3. Поиск максимального веса</t>
-  </si>
-  <si>
-    <t>Первый, ассоциация, вес</t>
-  </si>
-  <si>
-    <t>для поиска максимального веса прямых потомков предка при создании новых ассоциаций</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -684,12 +675,6 @@
   </si>
   <si>
     <t>3. Поиск по группе, пользователю и типу</t>
-  </si>
-  <si>
-    <t>!!! Возможно этот индекс избыточен и его можно заменить</t>
-  </si>
-  <si>
-    <t>индексом №2</t>
   </si>
   <si>
     <t>супертип</t>
@@ -1282,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1714,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1734,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -1779,7 +1764,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1812,67 +1797,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2651,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2638,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>91</v>
@@ -3064,7 +3023,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
@@ -3099,7 +3058,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
@@ -3131,37 +3090,37 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3181,12 +3140,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3196,7 +3155,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3211,7 +3170,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,14 +3179,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,37 +3196,37 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3296,7 +3255,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,128 +3265,128 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
         <v>192</v>
-      </c>
-      <c r="B19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3435,13 +3394,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3449,13 +3408,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3463,13 +3422,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3477,13 +3436,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3491,13 +3450,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3505,13 +3464,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3519,13 +3478,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3533,13 +3492,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3547,13 +3506,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3561,13 +3520,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3575,13 +3534,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3589,13 +3548,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3603,13 +3562,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3617,13 +3576,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3631,13 +3590,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3645,13 +3604,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3659,13 +3618,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3673,13 +3632,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3687,13 +3646,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3701,13 +3660,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40">
         <v>1</v>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="223">
   <si>
     <t>ассоциация</t>
   </si>
@@ -521,15 +521,6 @@
     <t>Колонка Вес заполняется только для прямых потомков. Для непрямых потомков она всегда равна 0.</t>
   </si>
   <si>
-    <t>3. Поиск максимального веса</t>
-  </si>
-  <si>
-    <t>Первый, ассоциация, вес</t>
-  </si>
-  <si>
-    <t>для поиска максимального веса прямых потомков предка при создании новых ассоциаций</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -686,12 +677,6 @@
     <t>3. Поиск по группе, пользователю и типу</t>
   </si>
   <si>
-    <t>!!! Возможно этот индекс избыточен и его можно заменить</t>
-  </si>
-  <si>
-    <t>индексом №2</t>
-  </si>
-  <si>
     <t>супертип</t>
   </si>
   <si>
@@ -701,13 +686,13 @@
     <t>показвать, группа и пользователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
   </si>
   <si>
-    <t>группа, супертип, пользователь,  показывать</t>
-  </si>
-  <si>
     <t>В критерий добавляется  группа по умолчанию (0) или все группы (которых не много)</t>
   </si>
   <si>
     <t>В идеале надо задавать все типы айтемов, которые могут принадлежать пользователю (чтобы не было полного сканирования таблицы)</t>
+  </si>
+  <si>
+    <t>группа, супертип, пользователь</t>
   </si>
   <si>
     <t>показывать, ID, группа, пользователь</t>
@@ -1282,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1714,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1734,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -1779,7 +1764,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1812,67 +1797,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2651,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2638,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>91</v>
@@ -3064,7 +3023,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
@@ -3099,7 +3058,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
@@ -3131,37 +3090,37 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3181,12 +3140,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3196,7 +3155,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3211,7 +3170,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,14 +3179,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,37 +3196,37 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3296,7 +3255,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,128 +3265,128 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
         <v>192</v>
-      </c>
-      <c r="B19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3435,13 +3394,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3449,13 +3408,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3463,13 +3422,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3477,13 +3436,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3491,13 +3450,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3505,13 +3464,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3519,13 +3478,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3533,13 +3492,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3547,13 +3506,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3561,13 +3520,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3575,13 +3534,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3589,13 +3548,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3603,13 +3562,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3617,13 +3576,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3631,13 +3590,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3645,13 +3604,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3659,13 +3618,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3673,13 +3632,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3687,13 +3646,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3701,13 +3660,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40">
         <v>1</v>

--- a/DOCS/all_tables_new.xlsx
+++ b/DOCS/all_tables_new.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\testo\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="223">
   <si>
     <t>ассоциация</t>
   </si>
@@ -521,15 +521,6 @@
     <t>Колонка Вес заполняется только для прямых потомков. Для непрямых потомков она всегда равна 0.</t>
   </si>
   <si>
-    <t>3. Поиск максимального веса</t>
-  </si>
-  <si>
-    <t>Первый, ассоциация, вес</t>
-  </si>
-  <si>
-    <t>для поиска максимального веса прямых потомков предка при создании новых ассоциаций</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -641,9 +632,6 @@
     <t>Также нахождение столбцов показывать, группа и пользователь в этой таблице позволяет уменьшить индексы в таблице ItemParent,</t>
   </si>
   <si>
-    <t>ID, показывать, группа, пользователь</t>
-  </si>
-  <si>
     <t>Второй, ассоциация, прямой потомок, первый</t>
   </si>
   <si>
@@ -680,9 +668,6 @@
     <t>заданным типом (например, загрузка айтема каталога продукции).</t>
   </si>
   <si>
-    <t>В критерий добавляется  группа по умолчанию (0) и анонимный пользователь (0).</t>
-  </si>
-  <si>
     <t>В критерий добавляется группа залогиненного админа и ID его пользователя либо 0 (user_id IN (0, пользователь))</t>
   </si>
   <si>
@@ -692,12 +677,6 @@
     <t>3. Поиск по группе, пользователю и типу</t>
   </si>
   <si>
-    <t>!!! Возможно этот индекс избыточен и его можно заменить</t>
-  </si>
-  <si>
-    <t>индексом №2</t>
-  </si>
-  <si>
     <t>супертип</t>
   </si>
   <si>
@@ -707,7 +686,16 @@
     <t>показвать, группа и пользователь находятся в этой таблице, а не в таблице ItemParent, потому, что они однозначно соответствуют</t>
   </si>
   <si>
-    <t>группа, пользователь, супертип, показывать</t>
+    <t>В критерий добавляется  группа по умолчанию (0) или все группы (которых не много)</t>
+  </si>
+  <si>
+    <t>В идеале надо задавать все типы айтемов, которые могут принадлежать пользователю (чтобы не было полного сканирования таблицы)</t>
+  </si>
+  <si>
+    <t>группа, супертип, пользователь</t>
+  </si>
+  <si>
+    <t>показывать, ID, группа, пользователь</t>
   </si>
 </sst>
 </file>
@@ -912,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -998,6 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1278,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1714,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1734,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -1775,7 +1764,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1808,67 +1797,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2645,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2638,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>91</v>
@@ -3060,7 +3023,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
@@ -3095,7 +3058,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
@@ -3127,37 +3090,37 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -3177,12 +3140,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3192,7 +3155,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3170,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3216,14 +3179,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,33 +3196,41 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3284,7 +3255,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,128 +3265,128 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
         <v>192</v>
-      </c>
-      <c r="B19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3423,13 +3394,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3437,13 +3408,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3451,13 +3422,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3465,13 +3436,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3479,13 +3450,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3493,13 +3464,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3507,13 +3478,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3521,13 +3492,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3535,13 +3506,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3549,13 +3520,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3563,13 +3534,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3577,13 +3548,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3591,13 +3562,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3605,13 +3576,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3619,13 +3590,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3633,13 +3604,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3647,13 +3618,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3661,13 +3632,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3675,13 +3646,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3689,13 +3660,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40">
         <v>1</v>
